--- a/items/WeaponTypes.xlsx
+++ b/items/WeaponTypes.xlsx
@@ -11,105 +11,99 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
-  <si>
-    <t>SW</t>
-  </si>
-  <si>
-    <t>SRW</t>
-  </si>
-  <si>
-    <t>MW</t>
-  </si>
-  <si>
-    <t>MRW</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+  <si>
+    <t>Simple Weapons</t>
+  </si>
+  <si>
+    <t>Martial Weapons</t>
   </si>
   <si>
     <t>Club</t>
   </si>
   <si>
+    <t>Battleaxe</t>
+  </si>
+  <si>
     <t>Crossbow, Light</t>
   </si>
   <si>
-    <t>Battleaxe</t>
-  </si>
-  <si>
     <t>Blowgun</t>
   </si>
   <si>
     <t>Dagger</t>
   </si>
   <si>
+    <t>Crossbow, Hand</t>
+  </si>
+  <si>
     <t>Dart</t>
   </si>
   <si>
+    <t>Crossbow, Heavy</t>
+  </si>
+  <si>
+    <t>Great-club</t>
+  </si>
+  <si>
     <t>Flail</t>
   </si>
   <si>
-    <t>Crossbow, Hand</t>
-  </si>
-  <si>
-    <t>Great-club</t>
+    <t>Hand-axe</t>
+  </si>
+  <si>
+    <t>Glaive</t>
+  </si>
+  <si>
+    <t>Javelin</t>
+  </si>
+  <si>
+    <t>Great-axe</t>
+  </si>
+  <si>
+    <t>Light Hammer</t>
+  </si>
+  <si>
+    <t>Great-sword</t>
+  </si>
+  <si>
+    <t>Mace</t>
+  </si>
+  <si>
+    <t>Halberd</t>
+  </si>
+  <si>
+    <t>Quarterstaff</t>
+  </si>
+  <si>
+    <t>Lance</t>
   </si>
   <si>
     <t>Shortbow</t>
   </si>
   <si>
-    <t>Glaive</t>
-  </si>
-  <si>
-    <t>Crossbow, Heavy</t>
-  </si>
-  <si>
-    <t>Hand-axe</t>
+    <t>Longbow</t>
+  </si>
+  <si>
+    <t>Sickle</t>
+  </si>
+  <si>
+    <t>Long-sword</t>
   </si>
   <si>
     <t>Sling</t>
   </si>
   <si>
-    <t>Great-axe</t>
-  </si>
-  <si>
-    <t>Longbow</t>
-  </si>
-  <si>
-    <t>Javelin</t>
-  </si>
-  <si>
-    <t>Great-sword</t>
+    <t>Maul</t>
+  </si>
+  <si>
+    <t>Spear</t>
+  </si>
+  <si>
+    <t>Morning-star</t>
   </si>
   <si>
     <t>Net</t>
-  </si>
-  <si>
-    <t>Light Hammer</t>
-  </si>
-  <si>
-    <t>Halberd</t>
-  </si>
-  <si>
-    <t>Mace</t>
-  </si>
-  <si>
-    <t>Lance</t>
-  </si>
-  <si>
-    <t>Quarterstaff</t>
-  </si>
-  <si>
-    <t>Long-sword</t>
-  </si>
-  <si>
-    <t>Sickle</t>
-  </si>
-  <si>
-    <t>Maul</t>
-  </si>
-  <si>
-    <t>Spear</t>
-  </si>
-  <si>
-    <t>Morning-star</t>
   </si>
   <si>
     <t>Pike</t>
@@ -397,158 +391,162 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="1" t="s">
+    </row>
+    <row r="18">
+      <c r="B18" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12">
-      <c r="C12" s="1" t="s">
+    <row r="19">
+      <c r="B19" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13">
-      <c r="C13" s="1" t="s">
+    <row r="20">
+      <c r="B20" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14">
-      <c r="C14" s="1" t="s">
+    <row r="21">
+      <c r="B21" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15">
-      <c r="C15" s="1" t="s">
+    <row r="22">
+      <c r="B22" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16">
-      <c r="C16" s="1" t="s">
+    <row r="23">
+      <c r="B23" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17">
-      <c r="C17" s="1" t="s">
+    <row r="24">
+      <c r="B24" s="1" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="C18" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="C19" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
